--- a/outs/Bibliographies_out.xlsx
+++ b/outs/Bibliographies_out.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN24"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,248 +434,246 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>creator</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>creator</t>
+          <t>source</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>source</t>
+          <t>publisher</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>publisher</t>
+          <t>date</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>contributor</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>contributor</t>
+          <t>language</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>rights</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>rights</t>
+          <t>relation</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>relation</t>
+          <t>format</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>format</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>identifier</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>identifier</t>
+          <t>coverage</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>coverage</t>
+          <t>zotero_genre</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>zotero_genre</t>
+          <t>zotero_distributor</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>zotero_distributor</t>
+          <t>zotero_director</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>zotero_director</t>
+          <t>z_performer</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>z_performer</t>
+          <t>zotero_episode_number</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>zotero_episode_number</t>
+          <t>zotero_language</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>zotero_language</t>
+          <t>zotero_network</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>zotero_network</t>
+          <t>zotero_audio_recording_format</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>zotero_audio_recording_format</t>
+          <t>zotero_label</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>zotero_label</t>
+          <t>zotero_running_time</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>zotero_running_time</t>
+          <t>zotero_num_pages</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>zotero_num_pages</t>
+          <t>zotero_place</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>zotero_place</t>
+          <t>zotero_publisher</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>zotero_publisher</t>
+          <t>zotero_issn</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>zotero_issn</t>
+          <t>zotero_isbn</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>zotero_isbn</t>
+          <t>zotero_issue</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>zotero_issue</t>
+          <t>zotero_publication_title</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>zotero_publication_title</t>
+          <t>z_url</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>z_url</t>
+          <t>zotero_volume</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>zotero_volume</t>
+          <t>zotero_short_title</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>zotero_short_title</t>
+          <t>z_ref</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>z_ref</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>files</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>files</t>
+          <t>tags</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>tags</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>collection</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>25</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>French-Canadian Literature: An Introductory Bibliography</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>French-Canadian Literature: An Introductory Bibliography</t>
+          <t>From Chartier: "The following bibliography is a personal response to a growing number of demands from colleagues wishing to become acquainted with the rapidly expanding field of French-Canadian literature. This bibliography lays no claim whatever to completeness...only a multi-volumed effort could make such a claim, given the vastness of the subject-matter. The items listed here represent only a fraction of the very best work published in the fairly recent past. The general works are the most reliable source for readers interested in the literature of the earlier period."</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>From Chartier: "The following bibliography is a personal response to a growing number of demands from colleagues wishing to become acquainted with the rapidly expanding field of French-Canadian literature. This bibliography lays no claim whatever to completeness...only a multi-volumed effort could make such a claim, given the vastness of the subject-matter. The items listed here represent only a fraction of the very best work published in the fairly recent past. The general works are the most reliable source for readers interested in the literature of the earlier period."</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>Chartier, Armand B.</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1976 Autumn</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Journal Article</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Journal Article</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/484628221"&gt;484628221&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/484628221"&gt;484628221&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
           <t>up to 1976</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
@@ -688,96 +686,93 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>0047-7729</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>#2</t>
+          <t>Modern Language Studies</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Modern Language Studies</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>http://www.jstor.org/stable/3194613</t>
-        </is>
-      </c>
-      <c r="AH2" t="n">
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.jstor.org/stable/3194613"&gt;http://www.jstor.org/stable/3194613&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG2" t="n">
         <v>6</v>
       </c>
+      <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>Art and Architecture;Bibliography;Ethnicity and Collective Identity;Fiction and Literature;Literary Works -- Criticism and History;New England;Poetry;Québec;Social History</t>
+        </is>
+      </c>
       <c r="AM2" t="inlineStr">
-        <is>
-          <t>Art and Architecture;Bibliography;Ethnicity and Collective Identity;Fiction and Literature;Literary Works -- Criticism and History;New England;Poetry;Québec;Social History</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>77</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>A Franco-American Bibliography: New England</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A Franco-American Bibliography: New England</t>
+          <t>1979 annotated bibliography of materials relevant to Franco American studies. Lists resources (books, etc.) with their corresponding physical locations in one or more New England libraries.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1979 annotated bibliography of materials relevant to Franco American studies. Lists resources (books, etc.) with their corresponding physical locations in one or more New England libraries.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>Anctil, Pierre</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1979 June</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>English and français</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Bibliography</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Bibliography</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/12238178"&gt;12238178&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/12238178"&gt;12238178&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
           <t>New England</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -787,20 +782,20 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
+      <c r="Y3" t="n">
         <v>160</v>
       </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Bedford, New Hampshire</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Bedford, New Hampshire</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
           <t>National Materials Development Center</t>
         </is>
       </c>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
@@ -810,62 +805,59 @@
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Bibliography;Education;New England</t>
+        </is>
+      </c>
       <c r="AM3" t="inlineStr">
-        <is>
-          <t>Bibliography;Education;New England</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>157</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Barre, Vermont: An Annotated Bibliography</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Barre, Vermont: An Annotated Bibliography</t>
+          <t>A descriptive bibliography of sources related to the history, politics, and peoples of Barre, Vermont. Divided into the following categories: Historical Sources, Politics and Business, Social Life and Organizations, Poets and Writers, Ethnic Sources, Church History, Schools, Transportation, Genealogy, Oral History, Audio-Visual, and Other.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A descriptive bibliography of sources related to the history, politics, and peoples of Barre, Vermont. Divided into the following categories: Historical Sources, Politics and Business, Social Life and Organizations, Poets and Writers, Ethnic Sources, Church History, Schools, Transportation, Genealogy, Oral History, Audio-Visual, and Other.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>Beavin, Daniel;Blachly, Alice;Hathaway, Richard;Sacher, Andrew</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
+      <c r="F4" t="n">
         <v>1979</v>
       </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Bibliography</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Bibliography</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/5243727"&gt;5243727&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/5243727"&gt;5243727&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
           <t>Barre, Vermont</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -875,93 +867,90 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="n">
+      <c r="Y4" t="n">
         <v>80</v>
       </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Barre, Vermont</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Barre, Vermont</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
           <t>Aldrich Public Library</t>
         </is>
       </c>
+      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>Barre, Vermont: An Annotated Bibliography @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=NLkYPAAACAAJ&amp;amp;dq=barre,+vermont:+an+annotated+bibliography&amp;amp;hl=en&amp;amp;ei=BdDBTMKLL8P78AbWrYDYBg&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CDAQ6AEwAA"&gt;Barre, Vermont: An Annotated Bibliography @ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/8bbcf139db7e412aeb630a9c55f600d9.jpg</t>
+        </is>
+      </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/8bbcf139db7e412aeb630a9c55f600d9.jpg</t>
+          <t>Barre VT;Bibliography;Business and Economics;Community: Customs and Social Life;Education;Ethnicity and Collective Identity;Fiction and Literature;Genealogy;Government and Politics;Personal History: Biography and Oral History;Religion</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
-        <is>
-          <t>Barre VT;Bibliography;Business and Economics;Community: Customs and Social Life;Education;Ethnicity and Collective Identity;Fiction and Literature;Genealogy;Government and Politics;Personal History: Biography and Oral History;Religion</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>158</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Franco-American and Québec Studies: A selected bibliography of materials held by the Libraries of the State University of New York at Albany</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Franco-American and Québec Studies: A selected bibliography of materials held by the Libraries of the State University of New York at Albany</t>
+          <t>Short bibliography of texts relevant to Franco American and Québec studies to be found at the library of SUNY Albany. Divided into the following categories: Reference Material, General Works, Literature and Criticism, Franco-American Authors and Topics, and Periodicals.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Short bibliography of texts relevant to Franco American and Québec studies to be found at the library of SUNY Albany. Divided into the following categories: Reference Material, General Works, Literature and Criticism, Franco-American Authors and Topics, and Periodicals.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>Brieère, Eloise;Benedict, Marjorie A.</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
+      <c r="F5" t="n">
         <v>1984</v>
       </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Bibliography</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Bibliography</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/12743446"&gt;12743446&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/12743446"&gt;12743446&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
           <t>Albany, New York</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -971,89 +960,86 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="n">
+      <c r="Y5" t="n">
         <v>31</v>
       </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Albany, New York</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Albany, New York</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
           <t>State University of New York at Albany</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>Franco-American and Québec Studies: A selected bibliography... @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=xDj1GgAACAAJ&amp;amp;dq=briere%3B+franco-american+and+quebec+studies&amp;amp;hl=en&amp;amp;ei=Sr7aTJKOIMG88gaR_YX3CQ&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CC4Q6AEwAA"&gt;Franco-American and Québec Studies: A selected bibliography... @ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>Bibliography;Criticism and Review;Fiction and Literature;Journalism;Language and Linguistics;New England;New York;Québec</t>
+        </is>
+      </c>
       <c r="AM5" t="inlineStr">
-        <is>
-          <t>Bibliography;Criticism and Review;Fiction and Literature;Journalism;Language and Linguistics;New England;New York;Québec</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>159</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>AFGS Library Holdings</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AFGS Library Holdings</t>
+          <t>Catalog of books, CDs, microfilm/fiche, etc., contained in the library of the American-French Genealogical Society in Woonsocket, Rhode Island. This is the most recent version of the catalog (April 2007), but many libraries also have earlier versions (January 2000, April 2003, or August 2004, to name a few).</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Catalog of books, CDs, microfilm/fiche, etc., contained in the library of the American-French Genealogical Society in Woonsocket, Rhode Island. This is the most recent version of the catalog (April 2007), but many libraries also have earlier versions (January 2000, April 2003, or August 2004, to name a few).</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>Burkhart, Janice</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
+      <c r="F6" t="n">
         <v>2007</v>
       </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Bibliography</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Bibliography</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/319812843"&gt;319812843&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/319812843"&gt;319812843&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
           <t>Woonsocket, Rhode Island</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -1063,84 +1049,81 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="n">
+      <c r="Y6" t="n">
         <v>481</v>
       </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Woonsocket, Rhode Island</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Woonsocket, Rhode Island</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
           <t>American-French Genealogical Society</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>http://www.afgs.org/;AFGS Library Holdings (2003 ed.) @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.afgs.org/"&gt;http://www.afgs.org/&lt;/a&gt;&lt;/div&gt;;&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=H3tuMwAACAAJ&amp;amp;dq=editions:H3tuMwAACAAJ&amp;amp;hl=en&amp;amp;ei=wukATYL3AYGB8gbR3qDqBw&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CCMQ6AEwAA"&gt;AFGS Library Holdings (2003 ed.) @ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>Bibliography;Community: Customs and Social Life;Genealogy;Woonsocket RI</t>
+        </is>
+      </c>
       <c r="AM6" t="inlineStr">
-        <is>
-          <t>Bibliography;Community: Customs and Social Life;Genealogy;Woonsocket RI</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>160</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>A Selective and Thematic Checklist of Publications Relating to Franco-Americans: Ethnic Heritage Studies Program of Rhode Island, Appendices F and G</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A Selective and Thematic Checklist of Publications Relating to Franco-Americans: Ethnic Heritage Studies Program of Rhode Island, Appendices F and G</t>
+          <t>Republished as article in Contemporary French Civilization, Volume 2, Number 3, Spring 1978.  From ERIC: "An annotated bibliography of publications relating to Franco-Americans is presented. The publication was designed for secondary school teachers of French or social studies who wish to know more about Franco Americans before initiating mini-courses on this ethnic group. Journal articles, books, and papers presented at professional meetings are included. Most of the items deal with the French in New England, but a few entries concern the French presence in other parts of  the United States. In addition to reference works and bibliographies, the following topics are covered: culture, education, history, linguistics, poetry, prose fiction, mother-country materials, religion, and sociology. A partial listing of research projects completed at Rhode Island College and a brief list of periodicals are appended."</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Republished as article in Contemporary French Civilization, Volume 2, Number 3, Spring 1978.  From ERIC: "An annotated bibliography of publications relating to Franco-Americans is presented. The publication was designed for secondary school teachers of French or social studies who wish to know more about Franco Americans before initiating mini-courses on this ethnic group. Journal articles, books, and papers presented at professional meetings are included. Most of the items deal with the French in New England, but a few entries concern the French presence in other parts of  the United States. In addition to reference works and bibliographies, the following topics are covered: culture, education, history, linguistics, poetry, prose fiction, mother-country materials, religion, and sociology. A partial listing of research projects completed at Rhode Island College and a brief list of periodicals are appended."</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>Chartier, Armand B.</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
+      <c r="F7" t="n">
         <v>1975</v>
       </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Bibliography</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Bibliography</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
           <t>&lt;a href="http://www.eric.ed.gov:80/ERICWebPortal/detail?accno=ED188491"&gt;ED188491&lt;/a&gt;</t>
         </is>
       </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -1152,81 +1135,78 @@
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Providence, Rhode Island</t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Providence, Rhode Island</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
           <t>National Materials Development Center (NMDC)</t>
         </is>
       </c>
+      <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>http://www.eric.ed.gov:80/ERICWebPortal/detail?accno=ED188491</t>
-        </is>
-      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.eric.ed.gov:80/ERICWebPortal/detail?accno=ED188491"&gt;http://www.eric.ed.gov:80/ERICWebPortal/detail?accno=ED188491&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>Bibliography;Education;Ethnicity and Collective Identity;New England;Rhode Island;United States</t>
+        </is>
+      </c>
       <c r="AM7" t="inlineStr">
-        <is>
-          <t>Bibliography;Education;Ethnicity and Collective Identity;New England;Rhode Island;United States</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>161</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>A Resource Guide for New England Libraries : Bilingual/Bicultural Education, Franco-American Studies</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A Resource Guide for New England Libraries : Bilingual/Bicultural Education, Franco-American Studies</t>
+          <t>Phyllis Hagel, author of books used in the classroom for language learning, has developed an index and bibliography for resources helpful to bilingual educators and those interested in Franco American studies.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Phyllis Hagel, author of books used in the classroom for language learning, has developed an index and bibliography for resources helpful to bilingual educators and those interested in Franco American studies.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>Hagel, Phyllis</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
+      <c r="F8" t="n">
         <v>1976</v>
       </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Bibliography</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Bibliography</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
           <t>&lt;a href="http://www.worldcat.org/oclc/6396225"&gt;6396225&lt;/a&gt;</t>
         </is>
       </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -1237,93 +1217,90 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="n">
+      <c r="Y8" t="n">
         <v>45</v>
       </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>Fall River, Massachusetts</t>
+        </is>
+      </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Fall River, Massachusetts</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
           <t>National Assessment and Dissemination Center (NADC)</t>
         </is>
       </c>
+      <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>A Resource Guide for New England Libraries @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=VyzcGwAACAAJ&amp;amp;dq=hagel%3B+a+resource+guide+for+new+england+libraries&amp;amp;hl=en&amp;amp;ei=e77aTLv9Osmr8Ab8scGHDA&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CC0Q6AEwAA"&gt;A Resource Guide for New England Libraries @ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/e54bff25905f86cc5679160adae752bb.jpg</t>
+        </is>
+      </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/e54bff25905f86cc5679160adae752bb.jpg</t>
+          <t>Bibliography;Education;Ethnicity and Collective Identity;Language and Linguistics;New England</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
-        <is>
-          <t>Bibliography;Education;Ethnicity and Collective Identity;Language and Linguistics;New England</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>162</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Francoamerican Cultural Identity: A Resource Guide</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Francoamerican Cultural Identity: A Resource Guide</t>
+          <t>Compilation of information on resources, repositories, references, and research tools available for the study of Franco American history and cultural identity in New England. Lists specific archival collections and their locations; library collections of current materials; French-English bilingual education programs and resources across the United States.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Compilation of information on resources, repositories, references, and research tools available for the study of Franco American history and cultural identity in New England. Lists specific archival collections and their locations; library collections of current materials; French-English bilingual education programs and resources across the United States.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>Hickey, John</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
+      <c r="F9" t="n">
         <v>1976</v>
       </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Bibliography</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Bibliography</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/3269655"&gt;3269655&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/3269655"&gt;3269655&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
           <t>1976; New England</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -1333,84 +1310,81 @@
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="n">
+      <c r="Y9" t="n">
         <v>18</v>
       </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Ithaca, New York</t>
+        </is>
+      </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Ithaca, New York</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
           <t>Self-published</t>
         </is>
       </c>
+      <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>Francoamerican Cultural Identity @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=DeCIGwAACAAJ&amp;amp;dq=hickey%3B+francoamerican+cultural&amp;amp;hl=en&amp;amp;ei=HEdpTOGPJIL68AaN3e22BA&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CC4Q6AEwAA"&gt;Francoamerican Cultural Identity @ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>Bibliography;Connecticut;Education;Louisiana;Maine;Massachusetts;New England;New Hampshire;Rhode Island;Vermont</t>
+        </is>
+      </c>
       <c r="AM9" t="inlineStr">
-        <is>
-          <t>Bibliography;Connecticut;Education;Louisiana;Maine;Massachusetts;New England;New Hampshire;Rhode Island;Vermont</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>163</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Franco-American Studies: A Resource Guide</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Franco-American Studies: A Resource Guide</t>
+          <t>What the author calls "an annotated bibliography of materials about Franco-Americans and French Canada which are available in the greater Waterville (Maine) area." She writes: "In this bibliography an attempt has been made to take advantage of previously available bibliographical materials while at the same time adding all other items of which [we] have first-hand knowledge, with annotative commentary for everything."</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>What the author calls "an annotated bibliography of materials about Franco-Americans and French Canada which are available in the greater Waterville (Maine) area." She writes: "In this bibliography an attempt has been made to take advantage of previously available bibliographical materials while at the same time adding all other items of which [we] have first-hand knowledge, with annotative commentary for everything."</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t>Kempers, Anne</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
+      <c r="F10" t="n">
         <v>1980</v>
       </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Bibliography</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Bibliography</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
           <t>&lt;a href="http://www.worldcat.org/oclc/8384190"&gt;8384190&lt;/a&gt;</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1421,88 +1395,85 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="n">
+      <c r="Y10" t="n">
         <v>55</v>
       </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Orono, Maine</t>
+        </is>
+      </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Orono, Maine</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
           <t>University of Maine at Orono</t>
         </is>
       </c>
+      <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>Franco-American Studies: A Resource Guide @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=cU67HAAACAAJ&amp;amp;dq=kempers%3B+franco-american+studies&amp;amp;hl=en&amp;amp;ei=OLzaTKG1G8G78gb5t-n3CQ&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CCsQ6AEwAA"&gt;Franco-American Studies: A Resource Guide @ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>Bibliography;Education;New England;Québec;Waterville ME</t>
+        </is>
+      </c>
       <c r="AM10" t="inlineStr">
-        <is>
-          <t>Bibliography;Education;New England;Québec;Waterville ME</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>164</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Franco-American Health-Related Bibliography</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Franco-American Health-Related Bibliography</t>
+          <t>Bibliography of books and articles related to the health and wellness of Franco-Americans and people of French-Canadian descent. From the foreword: "The following bibliography hopes to unite health-care providers with the growing body of knowledge focusing on the interdependence of culture, society and medicine. As is true with all bibliographies, this is not an exhaustive list of all resources available. It is the result of a combination of other bibliographies and databases for the specific purpose of creating a Franco-American health-related bibliography...."</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Bibliography of books and articles related to the health and wellness of Franco-Americans and people of French-Canadian descent. From the foreword: "The following bibliography hopes to unite health-care providers with the growing body of knowledge focusing on the interdependence of culture, society and medicine. As is true with all bibliographies, this is not an exhaustive list of all resources available. It is the result of a combination of other bibliographies and databases for the specific purpose of creating a Franco-American health-related bibliography...."</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>Kovacich, Joann</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
+      <c r="F11" t="n">
         <v>1989</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Bibliography</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Bibliography</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
           <t>&lt;a href="http://www.worldcat.org/oclc/20583625"&gt;20583625&lt;/a&gt;</t>
         </is>
       </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1513,93 +1484,90 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="n">
+      <c r="Y11" t="n">
         <v>57</v>
       </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Orono, Maine</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Orono, Maine</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
           <t>Katahdin Area Health Education Center, University of Maine</t>
         </is>
       </c>
+      <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>Franco-American Health-Related Bibliography @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=s8pDHQAACAAJ&amp;amp;dq=franco-american+health-related+bibliography&amp;amp;hl=en&amp;amp;ei=yUtpTIDbIMT58Ab5jrHaBA&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CDYQ6AEwAA"&gt;Franco-American Health-Related Bibliography @ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>Ethnicity and Collective Identity;Family;Illness;New England;Nonfiction;Nonfiction -- Science and Medicine</t>
+        </is>
+      </c>
       <c r="AM11" t="inlineStr">
-        <is>
-          <t>Ethnicity and Collective Identity;Family;Illness;New England;Nonfiction;Nonfiction -- Science and Medicine</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>165</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>The Franco-Americans of New England: A Union List of Materials in Selected Maine Libraries (Un catalogue de matériaux disponibles dans certaines bibliothièques de l'État du Maine)</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>The Franco-Americans of New England: A Union List of Materials in Selected Maine Libraries (Un catalogue de matériaux disponibles dans certaines bibliothièques de l'État du Maine)</t>
+          <t>From the text: "Works written by Franco-Americans and those written about them were inventoried. This latter category includes some writings dealing with other subjects with contain substantial sections of the Franco-Americans of New England." From WorldCat: "Approximately 140 bibliographic citations of periodicals, serials, and newspapers; books, pamphlets and theses; and selected articles dating from the 1890's to the present time and held in Maine libraries are included in this inventory of materials by or about Franco-American people."</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>From the text: "Works written by Franco-Americans and those written about them were inventoried. This latter category includes some writings dealing with other subjects with contain substantial sections of the Franco-Americans of New England." From WorldCat: "Approximately 140 bibliographic citations of periodicals, serials, and newspapers; books, pamphlets and theses; and selected articles dating from the 1890's to the present time and held in Maine libraries are included in this inventory of materials by or about Franco-American people."</t>
+          <t>Simano, Irene M.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Simano, Irene M.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
           <t>Read: FULL TEXT</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
         <v>1971</v>
       </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Bibliography</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Bibliography</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/425585108"&gt;425585108&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/425585108"&gt;425585108&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
           <t>Maine</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
@@ -1609,20 +1577,20 @@
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="n">
+      <c r="Y12" t="n">
         <v>15</v>
       </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Orono, Maine</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Orono, Maine</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
           <t>New England-Atlantic Provinces-Québec Center, University of Maine</t>
         </is>
       </c>
+      <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
@@ -1632,70 +1600,67 @@
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>Bibliography;Maine</t>
+        </is>
+      </c>
       <c r="AM12" t="inlineStr">
-        <is>
-          <t>Bibliography;Maine</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>309</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Essai bibliographique : sur l'apport franco-américain à  la littérature des États-Unis</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Essai bibliographique : sur l'apport franco-américain à  la littérature des États-Unis</t>
+          <t>Un revue de la Nouvelle Angleterre sur une collection des littératures franco-américaines jusqu'au présent (1949). Contiens une bibliographie d'oeuvres publiés.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Un revue de la Nouvelle Angleterre sur une collection des littératures franco-américaines jusqu'au présent (1949). Contiens une bibliographie d'oeuvres publiés.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
           <t>Robert, Adolphe</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Institut d'histoire de l'Amérique française; Érudit</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="F13" t="n">
         <v>1949</v>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Français</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Article dans un revue</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Article dans un revue</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/1764125"&gt;1764125&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/1764125"&gt;1764125&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
           <t>1830-1949, Nouvelle-Angleterre</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
@@ -1705,94 +1670,91 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>??</t>
         </is>
       </c>
+      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="n">
+      <c r="AD13" t="n">
         <v>4</v>
       </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>Revue d'histoire de l'Amérique française</t>
+        </is>
+      </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>Revue d'histoire de l'Amérique française</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>http://www.erudit.org/revue/haf/1949/v2/n4/801501ar.pdf (le texte en plein)</t>
-        </is>
-      </c>
-      <c r="AH13" t="n">
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.erudit.org/revue/haf/1949/v2/n4/801501ar.pdf"&gt;http://www.erudit.org/revue/haf/1949/v2/n4/801501ar.pdf&lt;/a&gt; (le texte en plein)&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG13" t="n">
         <v>2</v>
       </c>
+      <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>Bibliography;Connecticut;Criticism and Review;Demography;Emigration and Immigration;Fiction and Literature;Literary Works -- Criticism and History;Maine;Manchester NH;Massachusetts;New England;New Hampshire;Québec;Rhode Island;Sports and Leisure;Vermont;Woonsocket RI;Worcester MA</t>
+        </is>
+      </c>
       <c r="AM13" t="inlineStr">
-        <is>
-          <t>Bibliography;Connecticut;Criticism and Review;Demography;Emigration and Immigration;Fiction and Literature;Literary Works -- Criticism and History;Maine;Manchester NH;Massachusetts;New England;New Hampshire;Québec;Rhode Island;Sports and Leisure;Vermont;Woonsocket RI;Worcester MA</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>320</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>The Immigrant Experience in American Fiction : An Annotated Bibliography</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The Immigrant Experience in American Fiction : An Annotated Bibliography</t>
+          <t>Bibliography of novels and some non-fiction authored by, concerning, and engaging a diversity of immigrant experiences in the United States. Important text for literary studies and American Studies.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Bibliography of novels and some non-fiction authored by, concerning, and engaging a diversity of immigrant experiences in the United States. Important text for literary studies and American Studies.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
           <t>Simone, Roberta</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Scarecrow Press</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="F14" t="n">
         <v>1994</v>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Book</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
           <t>&lt;a href="http://www.worldcat.org/oclc/44956605"&gt;44956605&lt;/a&gt;</t>
         </is>
       </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1803,97 +1765,94 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
+      <c r="Y14" t="n">
         <v>199</v>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>Metuchen, New Jersey</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr">
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>9.78059E+12</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>http://scarecrowpress.com/Catalog/SingleBook.shtml?command=Search&amp;db=^DB/CATALOG.db&amp;eqSKUdata=0810829622  The Immigrant Experience in American Fiction @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://scarecrowpress.com/Catalog/SingleBook.shtml?command=Search&amp;amp;db=^DB/CATALOG.db&amp;amp;eqSKUdata=0810829622"&gt;http://scarecrowpress.com/Catalog/SingleBook.shtml?command=Search&amp;amp;db=^DB/CATALOG.db&amp;amp;eqSKUdata=0810829622&lt;/a&gt; &lt;br/&gt;&lt;br/&gt; &lt;a href="http://books.google.com/books?id=sFUWAQAAIAAJ&amp;amp;dq=the+immigrant+experience+in+american+fiction:+an+annotated+bibliography&amp;amp;hl=en&amp;amp;ei=ATpITLPDIYGB8gaA073iDg&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CC4Q6AEwAA"&gt;The Immigrant Experience in American Fiction @ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>Bibliography;Criticism and Review;Emigration and Immigration;Ethnicity and Collective Identity;Fiction and Literature;Literary Works -- Criticism and History;United States</t>
+        </is>
+      </c>
       <c r="AM14" t="inlineStr">
-        <is>
-          <t>Bibliography;Criticism and Review;Emigration and Immigration;Ethnicity and Collective Identity;Fiction and Literature;Literary Works -- Criticism and History;United States</t>
-        </is>
-      </c>
-      <c r="AN14" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>945</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>A Franco-American Resources Inventory of New England : FARINE</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A Franco-American Resources Inventory of New England : FARINE</t>
+          <t>1980 catalog of people and places in New England that function as resources for Franco-American culture both in- and outside of their communities. The results of a student-led investigation through New England cities: community, industry, educational institutions, religious parishes.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1980 catalog of people and places in New England that function as resources for Franco-American culture both in- and outside of their communities. The results of a student-led investigation through New England cities: community, industry, educational institutions, religious parishes.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
           <t>F.A.R.O.G. (Franco-American Resource Opportunity Group)</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Self-published</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="F15" t="n">
         <v>1980</v>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>en; fr</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/6538417"&gt;6538417&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/6538417"&gt;6538417&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
           <t>1980; New England</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
@@ -1903,92 +1862,89 @@
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="n">
+      <c r="Y15" t="n">
         <v>84</v>
       </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>Orono, Maine</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Orono, Maine</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
           <t>Self-published</t>
         </is>
       </c>
+      <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>A Franco-American Resource Inventory of New England... @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=wO3ZOwAACAAJ"&gt;A Franco-American Resource Inventory of New England...&lt;/a&gt; @ Google Books&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/7ac74329cef6ba80f43bcd2e55d3d495.jpg</t>
+        </is>
+      </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/7ac74329cef6ba80f43bcd2e55d3d495.jpg</t>
+          <t>Art and Architecture;Bibliography;Community: Customs and Social Life;Connecticut;Demography;Education;Maine;Massachusetts;New England;New Hampshire;Nonfiction;Nonfiction -- Travel and Tourism;Personal History: Biography and Oral History;Rhode Island;Vermont</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
-        <is>
-          <t>Art and Architecture;Bibliography;Community: Customs and Social Life;Connecticut;Demography;Education;Maine;Massachusetts;New England;New Hampshire;Nonfiction;Nonfiction -- Travel and Tourism;Personal History: Biography and Oral History;Rhode Island;Vermont</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>1464</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Evangeline Resource List : A Selected Bibliography, Discography, and Filmography</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Evangeline Resource List : A Selected Bibliography, Discography, and Filmography</t>
+          <t>A list of resources relative to the epic poem "Evangeline" by Henry Wadsworth Longfellow, compiled by the director of the Acadian Archives at the University of Maine at Fort Kent. Contains listings of different published editions of the poem, criticism and interpretations of it, and other writings or art (sculpture, painting, film, music) informed by the poem and its history.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A list of resources relative to the epic poem "Evangeline" by Henry Wadsworth Longfellow, compiled by the director of the Acadian Archives at the University of Maine at Fort Kent. Contains listings of different published editions of the poem, criticism and interpretations of it, and other writings or art (sculpture, painting, film, music) informed by the poem and its history.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
           <t>Ornstein, Lisa</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
+      <c r="F16" t="n">
         <v>1997</v>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Français</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Journal Article</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Journal Article</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
           <t>&lt;a href="http://www.worldcat.org/oclc/33064369"&gt;33064369&lt;/a&gt;</t>
         </is>
       </c>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -2002,98 +1958,95 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>1521-6977</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>The River Review / La Revue riviière</t>
+        </is>
+      </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>The River Review / La Revue riviière</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>http://riverreview.umfk.maine.edu/</t>
-        </is>
-      </c>
-      <c r="AH16" t="n">
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://riverreview.umfk.maine.edu/"&gt;http://riverreview.umfk.maine.edu/&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG16" t="n">
         <v>3</v>
       </c>
+      <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/fcd0702c73068305876ee6c69892af93.jpg</t>
+        </is>
+      </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/fcd0702c73068305876ee6c69892af93.jpg</t>
+          <t>Acadians;Art and Architecture;Bibliography;Children's Literature;Fiction and Literature;Film and Television;Music;North America;Poetry</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
-        <is>
-          <t>Acadians;Art and Architecture;Bibliography;Children's Literature;Fiction and Literature;Film and Television;Music;North America;Poetry</t>
-        </is>
-      </c>
-      <c r="AN16" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>1551</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>An Annotated Bibliography of Title VII French Project-Developed Instructional Materials, 1970-1975</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>An Annotated Bibliography of Title VII French Project-Developed Instructional Materials, 1970-1975</t>
+          <t>List of educational materials designed for French and French/English American elementary education in the 1970s. Shares the titles, descriptions of content, and appropriate grade levels for language texts designed for teachers and students in Florida, Louisiana, Maine, New Hampshire, and Vermont.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>List of educational materials designed for French and French/English American elementary education in the 1970s. Shares the titles, descriptions of content, and appropriate grade levels for language texts designed for teachers and students in Florida, Louisiana, Maine, New Hampshire, and Vermont.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
           <t>National Materials Development Center</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>National Materials Development Center</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="F17" t="n">
         <v>1975</v>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>English, with some français</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/9306875"&gt;93006875&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/9306875"&gt;93006875&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
           <t>1970-1975, United States</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -2103,15 +2056,15 @@
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="n">
+      <c r="Y17" t="n">
         <v>50</v>
       </c>
-      <c r="AA17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>Bedford, New Hampshire</t>
         </is>
       </c>
+      <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
@@ -2122,70 +2075,67 @@
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>Berlin NH;Breaux Bridge LA;Caribou ME;Education;Florida;Frenchville ME;Greenville NH;Lafayette LA;Lafayette Parish LA;Language and Linguistics;Madawaska ME;Maine;New Hampshire;St. Agatha ME;St. John River Valley;St. Landry Parish LA;St. Martin Parish LA;Van Buren ME;Vermont;Youth</t>
+        </is>
+      </c>
       <c r="AM17" t="inlineStr">
-        <is>
-          <t>Berlin NH;Breaux Bridge LA;Caribou ME;Education;Florida;Frenchville ME;Greenville NH;Lafayette LA;Lafayette Parish LA;Language and Linguistics;Madawaska ME;Maine;New Hampshire;St. Agatha ME;St. John River Valley;St. Landry Parish LA;St. Martin Parish LA;Van Buren ME;Vermont;Youth</t>
-        </is>
-      </c>
-      <c r="AN17" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>1566</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Lumbering and the Maine Woods : A Bibliographical Guide</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Lumbering and the Maine Woods : A Bibliographical Guide</t>
+          <t>Bibliography of texts related to lumbering, woodcutters, and their environments in Maine from the middle 19th century to the 20th. Contains lists of manuscript collections, articles, comprehensive historical texts, town histories, unpublished theses, and some fiction. Many citations are annotated.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Bibliography of texts related to lumbering, woodcutters, and their environments in Maine from the middle 19th century to the 20th. Contains lists of manuscript collections, articles, comprehensive historical texts, town histories, unpublished theses, and some fiction. Many citations are annotated.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
           <t>Smith, David C.</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Maine Historical Society</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="F18" t="n">
         <v>1971</v>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/658331"&gt;658331&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/658331"&gt;658331&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
           <t>19th century - 20th century, Maine</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -2195,97 +2145,94 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="n">
+      <c r="Y18" t="n">
         <v>35</v>
       </c>
-      <c r="AA18" t="inlineStr">
+      <c r="Z18" t="inlineStr">
         <is>
           <t>Portland, Maine</t>
         </is>
       </c>
+      <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>http://www.mainehistory.org/  Lumbering and the Maine Woods... @ Google Books</t>
-        </is>
-      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.mainehistory.org/"&gt;http://www.mainehistory.org/&lt;/a&gt; &lt;br/&gt;&lt;br/&gt; &lt;a href="http://books.google.com/books?id=fPUjNgAACAAJ&amp;amp;dq=lumbering+and+the+maine+woods&amp;amp;hl=en&amp;amp;ei=aGm1TczzJay40QG26cyvCQ&amp;amp;sa=X&amp;amp;oi=book_result&amp;amp;ct=result&amp;amp;resnum=1&amp;amp;ved=0CDUQ6AEwAA"&gt;Lumbering and the Maine Woods... @ Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/fc36d58cca11945aa947ef4d3f2300c8.jpg</t>
+        </is>
+      </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/fc36d58cca11945aa947ef4d3f2300c8.jpg</t>
+          <t>Bibliography;Fiction and Literature;Forestry;Geography;Labor History;Maine;New England</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
-        <is>
-          <t>Bibliography;Fiction and Literature;Forestry;Geography;Labor History;Maine;New England</t>
-        </is>
-      </c>
-      <c r="AN18" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>1744</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Traditional Crafts and Craftsmanship in America : A Selected Bibliography</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Traditional Crafts and Craftsmanship in America : A Selected Bibliography</t>
+          <t>Bibliography of published writings and guides on crafts, handiwork, folk art, and their practice in the United States. Indexed by location, medium, and theme, each source appended with a Library of Congress catalog number.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Bibliography of published writings and guides on crafts, handiwork, folk art, and their practice in the United States. Indexed by location, medium, and theme, each source appended with a Library of Congress catalog number.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
           <t>Sink, Susan</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>American Folklife Center, Library of Congress</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="F19" t="n">
         <v>1983</v>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/12555335"&gt;12555335&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/12555335"&gt;12555335&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
           <t>20th century, United States</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
@@ -2295,101 +2242,98 @@
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="n">
+      <c r="Y19" t="n">
         <v>84</v>
       </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Washington, D.C.</t>
+        </is>
+      </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Washington, D.C.</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
           <t>American Folklife Center, Library of Congress</t>
         </is>
       </c>
+      <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>Featured on this list of LOC publications: http://www.loc.gov/folklife/AFChist/bibliography.html</t>
-        </is>
-      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;Featured on this list of LOC publications: &lt;a href="http://www.loc.gov/folklife/AFChist/bibliography.html"&gt;http://www.loc.gov/folklife/AFChist/bibliography.html&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/bb286e283c7ff0a2e014ebd6823c1ea4.jpg</t>
+        </is>
+      </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/bb286e283c7ff0a2e014ebd6823c1ea4.jpg</t>
+          <t>Art and Architecture;Bibliography;Folklore;Sports and Leisure;United States</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
-        <is>
-          <t>Art and Architecture;Bibliography;Folklore;Sports and Leisure;United States</t>
-        </is>
-      </c>
-      <c r="AN19" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>1755</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>The Atlantic Provinces of Canada : Union lists of materials in the larger libraries in Maine</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>The Atlantic Provinces of Canada : Union lists of materials in the larger libraries in Maine</t>
+          <t>Book-length listing of the materials on New Brunswick, Newfoundland and Labrador, Nova Scotia, and Prince Edward Island, that are to be found in a handful of Maine's largest and most thorough libraries. Compiled by historian and Canadian-American scholar at the University of Maine, Alice Stewart. Includes titles and publication dates of periodicals, newspapers, pamphlets, and books.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Book-length listing of the materials on New Brunswick, Newfoundland and Labrador, Nova Scotia, and Prince Edward Island, that are to be found in a handful of Maine's largest and most thorough libraries. Compiled by historian and Canadian-American scholar at the University of Maine, Alice Stewart. Includes titles and publication dates of periodicals, newspapers, pamphlets, and books.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
           <t>Stewart, Alice R.</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>New England-Atlantic Provinces-Quebec Center, University of Maine</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="F20" t="n">
         <v>1971</v>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>English and français</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/533246"&gt;533246&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/533246"&gt;533246&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
           <t>1971, Maine, Atlantic Provinces, Quebec</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
@@ -2399,20 +2343,20 @@
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="n">
+      <c r="Y20" t="n">
         <v>70</v>
       </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Orono, Maine</t>
+        </is>
+      </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Orono, Maine</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
           <t>New England-Atlantic Provinces-Quebec Center, University of Maine</t>
         </is>
       </c>
+      <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
@@ -2421,75 +2365,72 @@
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/9cbd9a9d4e7c5f04ed373f7895117928.jpg</t>
+        </is>
+      </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/9cbd9a9d4e7c5f04ed373f7895117928.jpg</t>
+          <t>Bibliography;Canada;Labrador;New Brunswick;Newfoundland;Nova Scotia;Prince Edward Island</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
-        <is>
-          <t>Bibliography;Canada;Labrador;New Brunswick;Newfoundland;Nova Scotia;Prince Edward Island</t>
-        </is>
-      </c>
-      <c r="AN20" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>1792</v>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Guide to Non-English-Language Print Media</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Guide to Non-English-Language Print Media</t>
+          <t>A bibliographic resource guide to non-English-language periodical publications in the United States. Organizes short profiles of media alphabetically by title, numerically by National Clearinghouse for Bilingual Education (NCBE) accession number, and geographically by city and state of publication. Includes hundreds of examples of print media from the 1970s and early 1980s. Published in a series of four resource guides, which includes the titles, "Guide to Non-English-Language Broadcasting," "Guide to Non-English-Language Schools," and "Guide to Non-English-Language Religious Units."</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A bibliographic resource guide to non-English-language periodical publications in the United States. Organizes short profiles of media alphabetically by title, numerically by National Clearinghouse for Bilingual Education (NCBE) accession number, and geographically by city and state of publication. Includes hundreds of examples of print media from the 1970s and early 1980s. Published in a series of four resource guides, which includes the titles, "Guide to Non-English-Language Broadcasting," "Guide to Non-English-Language Schools," and "Guide to Non-English-Language Religious Units."</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
           <t>Fishman, Joshua;Gertner, Michael H.;Lowy, Esther G.;Milan, William G.</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>National Clearinghouse for Bilingual Education</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="F21" t="n">
         <v>1981</v>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/9466020"&gt;9466020&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/9466020"&gt;9466020&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
           <t>1981, United States</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
@@ -2499,99 +2440,96 @@
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="n">
+      <c r="Y21" t="n">
         <v>51</v>
       </c>
-      <c r="AA21" t="inlineStr">
+      <c r="Z21" t="inlineStr">
         <is>
           <t>Rosslyn, Virginia</t>
         </is>
       </c>
+      <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr">
+      <c r="AC21" t="inlineStr">
         <is>
           <t>9.7809E+12</t>
         </is>
       </c>
+      <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/f6734695367024c5c946672751238117.jpg</t>
+        </is>
+      </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/f6734695367024c5c946672751238117.jpg</t>
+          <t>Bibliography;Journalism;Language and Linguistics;United States</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
-        <is>
-          <t>Bibliography;Journalism;Language and Linguistics;United States</t>
-        </is>
-      </c>
-      <c r="AN21" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>1799</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Franco-American Bibliography for Health Care Providers</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Franco-American Bibliography for Health Care Providers</t>
+          <t>Bibliographic list of over 350 texts helpful to providers in a variety of healthcare fields for learning about Franco Americans. Historical, cultural, literary, legal, biological, and other resources listed together in an attempt to serve holistically the information needs of educators, medical professionals, and caretakers aimed at serving the Franco American populations of New England.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Bibliographic list of over 350 texts helpful to providers in a variety of healthcare fields for learning about Franco Americans. Historical, cultural, literary, legal, biological, and other resources listed together in an attempt to serve holistically the information needs of educators, medical professionals, and caretakers aimed at serving the Franco American populations of New England.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
           <t>Robbins, Rhea Coêté</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Self-published</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Self-published</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>McPherson, Mary (project consultant)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>McPherson, Mary (project consultant)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
           <t>en</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>Document</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
         <is>
           <t>20th century; Maine, New England, United States; Canada</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
@@ -2614,72 +2552,69 @@
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>Bibliography;Ethnicity and Collective Identity;Health and Wellness;Maine;New England;Nonfiction;Nonfiction -- Science and Medicine</t>
+        </is>
+      </c>
       <c r="AM22" t="inlineStr">
-        <is>
-          <t>Bibliography;Ethnicity and Collective Identity;Health and Wellness;Maine;New England;Nonfiction;Nonfiction -- Science and Medicine</t>
-        </is>
-      </c>
-      <c r="AN22" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>1930</v>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Bibliographie commentée sur les Franco-Américains de la Nouvelle-Angleterre</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bibliographie commentée sur les Franco-Américains de la Nouvelle-Angleterre</t>
+          <t>Une bibliographie annoté qui est composée de 23 textes historiques, biographiques, et littéraires dans la tradition écrite franco-américaine.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Une bibliographie annoté qui est composée de 23 textes historiques, biographiques, et littéraires dans la tradition écrite franco-américaine.</t>
+          <t>Anctil, Pierre</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Anctil, Pierre</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
           <t>Lire: TEXTE INTèGRAL</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
         <is>
           <t>1979 avril</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Français</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Journal Article</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Journal Article</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/60627975"&gt;60627975&lt;/a&gt;;&lt;a href="http://www.worldcat.org/oclc/220726882"&gt;220726882&lt;/a&gt;;&lt;a href="http://www.worldcat.org/oclc/60688637"&gt;60688637&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/60627975"&gt;60627975&lt;/a&gt;;&lt;a href="http://www.worldcat.org/oclc/220726882"&gt;220726882&lt;/a&gt;;&lt;a href="http://www.worldcat.org/oclc/60688637"&gt;60688637&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
           <t>1878-1959; Nouvelle-Angleterre</t>
         </is>
       </c>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
@@ -2692,100 +2627,97 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr">
+      <c r="AB23" t="inlineStr">
         <is>
           <t>1708-8968</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="n">
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="n">
         <v>58</v>
       </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>Cahiers de géographie du Québec</t>
+        </is>
+      </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>Cahiers de géographie du Québec</t>
-        </is>
-      </c>
-      <c r="AG23" t="inlineStr">
-        <is>
-          <t>http://www.erudit.org/revue/cgq/1979/v23/n58/</t>
-        </is>
-      </c>
-      <c r="AH23" t="n">
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.erudit.org/revue/cgq/1979/v23/n58/"&gt;http://www.erudit.org/revue/cgq/1979/v23/n58/&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG23" t="n">
         <v>23</v>
       </c>
+      <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/f91322f77bf75a788b20df6a226a2dc1.jpg</t>
+        </is>
+      </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/f91322f77bf75a788b20df6a226a2dc1.jpg</t>
+          <t>Bibliography;Burlington VT;Emigration and Immigration;Fall River MA;Fiction and Literature;Lewiston ME;Lowell MA;Manchester NH;Nashua NH;New Bedford MA;New England;Woonsocket RI</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
-        <is>
-          <t>Bibliography;Burlington VT;Emigration and Immigration;Fall River MA;Fiction and Literature;Lewiston ME;Lowell MA;Manchester NH;Nashua NH;New Bedford MA;New England;Woonsocket RI</t>
-        </is>
-      </c>
-      <c r="AN23" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>1974</v>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Studies on Vermont/Québec Relations : The State of the Art</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Studies on Vermont/Québec Relations : The State of the Art</t>
+          <t>A brief annotated bibliography in essay form, with commentary, that focuses on the history of geographic and economic relationships between Vermont and Québec. Included in Occasional Paper Number Six, in a series produced by the Center for Research on Vermont, University of Vermont.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A brief annotated bibliography in essay form, with commentary, that focuses on the history of geographic and economic relationships between Vermont and Québec. Included in Occasional Paper Number Six, in a series produced by the Center for Research on Vermont, University of Vermont.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
           <t>Senécal, André</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Center for Research on Vermont, University of Vermont</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="F24" t="n">
         <v>1983</v>
       </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Book Section</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Book Section</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/10565367"&gt;10565367&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/10565367"&gt;10565367&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
           <t>1983; Vermont</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
@@ -2796,17 +2728,17 @@
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Burlington, Vermont</t>
+        </is>
+      </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Burlington, Vermont</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
           <t>Center for Research on Vermont, University of Vermont</t>
         </is>
       </c>
+      <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
@@ -2816,13 +2748,12 @@
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>Barre VT;Bibliography;Burlington VT;Business and Economics;Ethnicity and Collective Identity;Québec;St. Johnsbury VT;Vermont;Winooski VT</t>
+        </is>
+      </c>
       <c r="AM24" t="inlineStr">
-        <is>
-          <t>Barre VT;Bibliography;Burlington VT;Business and Economics;Ethnicity and Collective Identity;Québec;St. Johnsbury VT;Vermont;Winooski VT</t>
-        </is>
-      </c>
-      <c r="AN24" t="inlineStr">
         <is>
           <t>Bibliographies</t>
         </is>
